--- a/data/report/省区汇总表.xlsx
+++ b/data/report/省区汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4080,33 +4080,33 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="22.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" customWidth="1"/>
+    <col min="5" max="5" width="7.62962962962963" customWidth="1"/>
+    <col min="6" max="6" width="5.87962962962963" customWidth="1"/>
+    <col min="7" max="7" width="8.37962962962963" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="55.5" customWidth="1"/>
     <col min="10" max="10" width="33.75" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="10.125" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="9.375" customWidth="1"/>
-    <col min="16" max="16" width="7.625" customWidth="1"/>
-    <col min="17" max="17" width="24.125" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="13.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="16.8796296296296" customWidth="1"/>
+    <col min="13" max="13" width="10.1296296296296" customWidth="1"/>
+    <col min="14" max="14" width="12.8796296296296" customWidth="1"/>
+    <col min="15" max="15" width="9.37962962962963" customWidth="1"/>
+    <col min="16" max="16" width="7.62962962962963" customWidth="1"/>
+    <col min="17" max="17" width="24.1296296296296" customWidth="1"/>
+    <col min="18" max="18" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:22">
+    <row r="1" ht="13.5" customHeight="1" spans="1:22">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4198,7 +4198,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" ht="24" spans="1:22">
+    <row r="3" ht="36" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" ht="24" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>46022</v>
@@ -4466,7 +4466,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" ht="24" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>46022</v>
@@ -4516,7 +4516,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" ht="36" hidden="1" spans="1:22">
+    <row r="9" ht="48" hidden="1" spans="1:22">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" ht="108" hidden="1" spans="1:22">
+    <row r="10" ht="132" hidden="1" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>46025</v>
@@ -4600,7 +4600,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" ht="84" hidden="1" spans="1:22">
+    <row r="11" ht="96" hidden="1" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>46025</v>
@@ -4680,7 +4680,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" ht="36" hidden="1" spans="1:22">
+    <row r="13" ht="60" hidden="1" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>46025</v>
@@ -4760,7 +4760,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" ht="96" hidden="1" spans="1:22">
+    <row r="15" ht="108" hidden="1" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" ht="36" hidden="1" spans="1:22">
+    <row r="16" ht="48" hidden="1" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>46000</v>
@@ -4878,7 +4878,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" ht="48" hidden="1" spans="1:22">
+    <row r="17" ht="60" hidden="1" spans="1:22">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>46001</v>
@@ -4936,7 +4936,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="1:22">
+    <row r="18" ht="60" hidden="1" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>46000</v>
@@ -4994,7 +4994,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" ht="84" hidden="1" spans="1:22">
+    <row r="19" ht="96" hidden="1" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>46000</v>
@@ -5052,7 +5052,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" hidden="1" spans="1:22">
+    <row r="20" ht="24" hidden="1" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>46003</v>
@@ -5328,7 +5328,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" ht="24" hidden="1" spans="1:22">
+    <row r="25" ht="36" hidden="1" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <v>46001</v>
@@ -5436,7 +5436,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" ht="24" hidden="1" spans="1:22">
+    <row r="27" ht="36" hidden="1" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
         <v>46001</v>
@@ -5536,7 +5536,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" hidden="1" spans="1:22">
+    <row r="29" ht="24" hidden="1" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="6">
         <v>46006</v>
@@ -5744,7 +5744,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" hidden="1" spans="1:22">
+    <row r="33" ht="24" hidden="1" spans="1:22">
       <c r="A33" s="5"/>
       <c r="B33" s="6">
         <v>46007</v>
@@ -5910,7 +5910,7 @@
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" hidden="1" spans="1:22">
+    <row r="36" ht="24" hidden="1" spans="1:22">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>46007</v>
@@ -6126,7 +6126,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" ht="36" hidden="1" spans="1:22">
+    <row r="40" ht="48" hidden="1" spans="1:22">
       <c r="A40" s="5" t="s">
         <v>139</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" ht="24" spans="1:22">
+    <row r="46" ht="36" spans="1:22">
       <c r="A46" s="5" t="s">
         <v>156</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" ht="24" hidden="1" spans="1:22">
+    <row r="47" ht="36" hidden="1" spans="1:22">
       <c r="A47" s="5"/>
       <c r="B47" s="6">
         <v>46001</v>
@@ -6508,7 +6508,7 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" ht="24" hidden="1" spans="1:22">
+    <row r="48" ht="36" hidden="1" spans="1:22">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>46025</v>
@@ -7660,7 +7660,7 @@
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
     </row>
-    <row r="72" hidden="1" spans="1:22">
+    <row r="72" ht="24" hidden="1" spans="1:22">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>46007</v>
@@ -7708,7 +7708,7 @@
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
     </row>
-    <row r="73" ht="24" hidden="1" spans="1:22">
+    <row r="73" ht="36" hidden="1" spans="1:22">
       <c r="A73" s="5"/>
       <c r="B73" s="6">
         <v>46008</v>
@@ -7758,7 +7758,7 @@
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
     </row>
-    <row r="74" ht="72" spans="1:22">
+    <row r="74" ht="84" spans="1:22">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>46022</v>
@@ -8134,7 +8134,7 @@
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
     </row>
-    <row r="82" ht="24" hidden="1" spans="1:22">
+    <row r="82" ht="36" hidden="1" spans="1:22">
       <c r="A82" s="5"/>
       <c r="B82" s="6">
         <v>46013</v>
@@ -8186,7 +8186,7 @@
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
     </row>
-    <row r="83" ht="24" hidden="1" spans="1:22">
+    <row r="83" ht="36" hidden="1" spans="1:22">
       <c r="A83" s="5" t="s">
         <v>251</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
     </row>
-    <row r="87" ht="24" hidden="1" spans="1:22">
+    <row r="87" ht="36" hidden="1" spans="1:22">
       <c r="A87" s="5"/>
       <c r="B87" s="6">
         <v>46018</v>
@@ -8660,7 +8660,7 @@
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
     </row>
-    <row r="92" ht="48" hidden="1" spans="1:22">
+    <row r="92" ht="60" hidden="1" spans="1:22">
       <c r="A92" s="5"/>
       <c r="B92" s="6">
         <v>46018</v>
@@ -8708,7 +8708,7 @@
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
     </row>
-    <row r="93" ht="60" hidden="1" spans="1:22">
+    <row r="93" ht="84" hidden="1" spans="1:22">
       <c r="A93" s="5" t="s">
         <v>288</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
     </row>
-    <row r="94" ht="60" hidden="1" spans="1:22">
+    <row r="94" ht="84" hidden="1" spans="1:22">
       <c r="A94" s="5"/>
       <c r="B94" s="6">
         <v>46004</v>
@@ -8918,7 +8918,7 @@
       <c r="U96" s="5"/>
       <c r="V96" s="5"/>
     </row>
-    <row r="97" ht="24" hidden="1" spans="1:22">
+    <row r="97" ht="36" hidden="1" spans="1:22">
       <c r="A97" s="5"/>
       <c r="B97" s="6">
         <v>46006</v>
@@ -8976,7 +8976,7 @@
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
     </row>
-    <row r="98" hidden="1" spans="1:22">
+    <row r="98" ht="24" hidden="1" spans="1:22">
       <c r="A98" s="5"/>
       <c r="B98" s="6">
         <v>46004</v>
@@ -9034,7 +9034,7 @@
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:22">
+    <row r="99" ht="96" hidden="1" spans="1:22">
       <c r="A99" s="5" t="s">
         <v>308</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="U99" s="5"/>
       <c r="V99" s="5"/>
     </row>
-    <row r="100" ht="84" hidden="1" spans="1:22">
+    <row r="100" ht="96" hidden="1" spans="1:22">
       <c r="A100" s="5"/>
       <c r="B100" s="6">
         <v>46019</v>
@@ -9132,7 +9132,7 @@
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
     </row>
-    <row r="101" ht="84" hidden="1" spans="1:22">
+    <row r="101" ht="96" hidden="1" spans="1:22">
       <c r="A101" s="5"/>
       <c r="B101" s="6">
         <v>46019</v>
@@ -9180,7 +9180,7 @@
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
     </row>
-    <row r="102" ht="84" hidden="1" spans="1:22">
+    <row r="102" ht="96" hidden="1" spans="1:22">
       <c r="A102" s="5"/>
       <c r="B102" s="6">
         <v>46019</v>
@@ -9276,7 +9276,7 @@
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
     </row>
-    <row r="104" ht="84" hidden="1" spans="1:22">
+    <row r="104" ht="96" hidden="1" spans="1:22">
       <c r="A104" s="5"/>
       <c r="B104" s="6">
         <v>46019</v>
@@ -9372,7 +9372,7 @@
       <c r="U105" s="5"/>
       <c r="V105" s="5"/>
     </row>
-    <row r="106" ht="84" hidden="1" spans="1:22">
+    <row r="106" ht="96" hidden="1" spans="1:22">
       <c r="A106" s="5"/>
       <c r="B106" s="6">
         <v>46019</v>
@@ -9468,7 +9468,7 @@
       <c r="U107" s="5"/>
       <c r="V107" s="5"/>
     </row>
-    <row r="108" ht="84" hidden="1" spans="1:22">
+    <row r="108" ht="96" hidden="1" spans="1:22">
       <c r="A108" s="5"/>
       <c r="B108" s="6">
         <v>46019</v>
@@ -9598,7 +9598,7 @@
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
     </row>
-    <row r="111" hidden="1" spans="1:22">
+    <row r="111" ht="24" hidden="1" spans="1:22">
       <c r="A111" s="5"/>
       <c r="B111" s="6">
         <v>46013</v>
@@ -9678,7 +9678,7 @@
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
     </row>
-    <row r="113" hidden="1" spans="1:22">
+    <row r="113" ht="24" hidden="1" spans="1:22">
       <c r="A113" s="5"/>
       <c r="B113" s="6">
         <v>46013</v>
@@ -9718,7 +9718,7 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
     </row>
-    <row r="114" hidden="1" spans="1:22">
+    <row r="114" ht="24" hidden="1" spans="1:22">
       <c r="A114" s="5"/>
       <c r="B114" s="6">
         <v>46013</v>
@@ -9758,7 +9758,7 @@
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
     </row>
-    <row r="115" ht="24" hidden="1" spans="1:22">
+    <row r="115" ht="36" hidden="1" spans="1:22">
       <c r="A115" s="5"/>
       <c r="B115" s="6">
         <v>46013</v>
@@ -9798,7 +9798,7 @@
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
     </row>
-    <row r="116" ht="132" hidden="1" spans="1:22">
+    <row r="116" ht="156" hidden="1" spans="1:22">
       <c r="A116" s="5" t="s">
         <v>352</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="U117" s="5"/>
       <c r="V117" s="5"/>
     </row>
-    <row r="118" ht="132" hidden="1" spans="1:22">
+    <row r="118" ht="144" hidden="1" spans="1:22">
       <c r="A118" s="5"/>
       <c r="B118" s="6">
         <v>46012</v>
@@ -10520,7 +10520,7 @@
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
     </row>
-    <row r="131" ht="132" hidden="1" spans="1:22">
+    <row r="131" ht="144" hidden="1" spans="1:22">
       <c r="A131" s="5"/>
       <c r="B131" s="6">
         <v>46012</v>
@@ -10698,7 +10698,7 @@
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
     </row>
-    <row r="135" ht="36" spans="1:22">
+    <row r="135" ht="48" spans="1:22">
       <c r="A135" s="5"/>
       <c r="B135" s="6">
         <v>46022</v>
@@ -11438,7 +11438,7 @@
       <c r="U149" s="5"/>
       <c r="V149" s="5"/>
     </row>
-    <row r="150" hidden="1" spans="1:22">
+    <row r="150" ht="24" hidden="1" spans="1:22">
       <c r="A150" s="5"/>
       <c r="B150" s="6">
         <v>46007</v>
@@ -11494,7 +11494,7 @@
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
     </row>
-    <row r="151" ht="36" hidden="1" spans="1:22">
+    <row r="151" ht="48" hidden="1" spans="1:22">
       <c r="A151" s="5"/>
       <c r="B151" s="6">
         <v>46007</v>
@@ -11550,7 +11550,7 @@
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
     </row>
-    <row r="152" ht="36" hidden="1" spans="1:22">
+    <row r="152" ht="48" hidden="1" spans="1:22">
       <c r="A152" s="5"/>
       <c r="B152" s="6">
         <v>46007</v>
@@ -11600,7 +11600,7 @@
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
     </row>
-    <row r="153" ht="60" hidden="1" spans="1:22">
+    <row r="153" ht="72" hidden="1" spans="1:22">
       <c r="A153" s="5" t="s">
         <v>454</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
     </row>
-    <row r="154" ht="48" hidden="1" spans="1:22">
+    <row r="154" ht="60" hidden="1" spans="1:22">
       <c r="A154" s="5"/>
       <c r="B154" s="6">
         <v>46019</v>
@@ -11702,7 +11702,7 @@
       <c r="U154" s="5"/>
       <c r="V154" s="5"/>
     </row>
-    <row r="155" ht="48" hidden="1" spans="1:22">
+    <row r="155" ht="60" hidden="1" spans="1:22">
       <c r="A155" s="5"/>
       <c r="B155" s="6">
         <v>46019</v>
@@ -12070,7 +12070,7 @@
       <c r="U161" s="5"/>
       <c r="V161" s="5"/>
     </row>
-    <row r="162" ht="24" hidden="1" spans="1:22">
+    <row r="162" ht="36" hidden="1" spans="1:22">
       <c r="A162" s="5"/>
       <c r="B162" s="6">
         <v>46006</v>
@@ -12260,7 +12260,7 @@
       <c r="U165" s="5"/>
       <c r="V165" s="5"/>
     </row>
-    <row r="166" ht="24" hidden="1" spans="1:22">
+    <row r="166" ht="36" hidden="1" spans="1:22">
       <c r="A166" s="5"/>
       <c r="B166" s="6">
         <v>46015</v>
@@ -12584,7 +12584,7 @@
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
     </row>
-    <row r="174" ht="120" spans="1:22">
+    <row r="174" ht="156" spans="1:22">
       <c r="A174" s="5" t="s">
         <v>514</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="U174" s="5"/>
       <c r="V174" s="5"/>
     </row>
-    <row r="175" ht="36" spans="1:22">
+    <row r="175" ht="48" spans="1:22">
       <c r="A175" s="5"/>
       <c r="B175" s="6">
         <v>46022</v>
@@ -13032,7 +13032,7 @@
       <c r="U183" s="5"/>
       <c r="V183" s="5"/>
     </row>
-    <row r="184" ht="36" hidden="1" spans="1:22">
+    <row r="184" ht="48" hidden="1" spans="1:22">
       <c r="A184" s="5"/>
       <c r="B184" s="6">
         <v>46024</v>
@@ -13116,7 +13116,7 @@
       <c r="U185" s="5"/>
       <c r="V185" s="5"/>
     </row>
-    <row r="186" ht="24" hidden="1" spans="1:22">
+    <row r="186" ht="36" hidden="1" spans="1:22">
       <c r="A186" s="5" t="s">
         <v>554</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="U189" s="5"/>
       <c r="V189" s="5"/>
     </row>
-    <row r="190" ht="84" spans="1:22">
+    <row r="190" ht="108" spans="1:22">
       <c r="A190" s="5"/>
       <c r="B190" s="6">
         <v>46022</v>
@@ -13376,7 +13376,7 @@
       <c r="U190" s="5"/>
       <c r="V190" s="5"/>
     </row>
-    <row r="191" ht="48" spans="1:22">
+    <row r="191" ht="60" spans="1:22">
       <c r="A191" s="5"/>
       <c r="B191" s="6">
         <v>46022</v>
@@ -13880,7 +13880,7 @@
       <c r="U200" s="5"/>
       <c r="V200" s="5"/>
     </row>
-    <row r="201" ht="24" hidden="1" spans="1:22">
+    <row r="201" ht="36" hidden="1" spans="1:22">
       <c r="A201" s="26"/>
       <c r="B201" s="6">
         <v>46020</v>
@@ -14326,7 +14326,7 @@
       <c r="U211" s="5"/>
       <c r="V211" s="5"/>
     </row>
-    <row r="212" ht="24" hidden="1" spans="1:22">
+    <row r="212" ht="36" hidden="1" spans="1:22">
       <c r="A212" s="26"/>
       <c r="B212" s="6">
         <v>46020</v>
@@ -14448,7 +14448,7 @@
       <c r="U214" s="5"/>
       <c r="V214" s="5"/>
     </row>
-    <row r="215" ht="24" hidden="1" spans="1:22">
+    <row r="215" ht="36" hidden="1" spans="1:22">
       <c r="A215" s="26"/>
       <c r="B215" s="6">
         <v>46020</v>
@@ -14490,7 +14490,7 @@
       <c r="U215" s="5"/>
       <c r="V215" s="5"/>
     </row>
-    <row r="216" hidden="1" spans="1:22">
+    <row r="216" ht="24" hidden="1" spans="1:22">
       <c r="A216" s="26"/>
       <c r="B216" s="6">
         <v>46020</v>
@@ -14590,7 +14590,7 @@
       <c r="U217" s="5"/>
       <c r="V217" s="5"/>
     </row>
-    <row r="218" ht="132" hidden="1" spans="1:22">
+    <row r="218" ht="156" hidden="1" spans="1:22">
       <c r="A218" s="5"/>
       <c r="B218" s="6">
         <v>46012</v>
@@ -14652,7 +14652,7 @@
       <c r="U218" s="5"/>
       <c r="V218" s="5"/>
     </row>
-    <row r="219" ht="132" hidden="1" spans="1:22">
+    <row r="219" ht="156" hidden="1" spans="1:22">
       <c r="A219" s="5"/>
       <c r="B219" s="6">
         <v>46012</v>
@@ -14888,7 +14888,7 @@
       <c r="U222" s="5"/>
       <c r="V222" s="5"/>
     </row>
-    <row r="223" ht="132" hidden="1" spans="1:22">
+    <row r="223" ht="156" hidden="1" spans="1:22">
       <c r="A223" s="5"/>
       <c r="B223" s="6">
         <v>46012</v>
@@ -15350,7 +15350,7 @@
       <c r="U230" s="5"/>
       <c r="V230" s="5"/>
     </row>
-    <row r="231" ht="144" hidden="1" spans="1:22">
+    <row r="231" ht="180" hidden="1" spans="1:22">
       <c r="A231" s="5"/>
       <c r="B231" s="6">
         <v>46012</v>
@@ -16126,7 +16126,7 @@
       <c r="U244" s="5"/>
       <c r="V244" s="5"/>
     </row>
-    <row r="245" spans="1:22">
+    <row r="245" ht="24" spans="1:22">
       <c r="A245" s="5"/>
       <c r="B245" s="6">
         <v>46022</v>
@@ -16318,7 +16318,7 @@
       <c r="U248" s="5"/>
       <c r="V248" s="5"/>
     </row>
-    <row r="249" spans="1:22">
+    <row r="249" ht="24" spans="1:22">
       <c r="A249" s="5"/>
       <c r="B249" s="6">
         <v>46022</v>
@@ -16510,7 +16510,7 @@
       <c r="U252" s="5"/>
       <c r="V252" s="5"/>
     </row>
-    <row r="253" spans="1:22">
+    <row r="253" ht="24" spans="1:22">
       <c r="A253" s="5"/>
       <c r="B253" s="6">
         <v>46022</v>
@@ -16606,7 +16606,7 @@
       <c r="U254" s="5"/>
       <c r="V254" s="5"/>
     </row>
-    <row r="255" spans="1:22">
+    <row r="255" ht="24" spans="1:22">
       <c r="A255" s="5"/>
       <c r="B255" s="6">
         <v>46022</v>
@@ -16760,7 +16760,7 @@
       <c r="U257" s="5"/>
       <c r="V257" s="5"/>
     </row>
-    <row r="258" ht="48" hidden="1" spans="1:22">
+    <row r="258" ht="60" hidden="1" spans="1:22">
       <c r="A258" s="5"/>
       <c r="B258" s="6">
         <v>46020</v>
@@ -16816,7 +16816,7 @@
       <c r="U258" s="5"/>
       <c r="V258" s="5"/>
     </row>
-    <row r="259" ht="48" hidden="1" spans="1:22">
+    <row r="259" ht="60" hidden="1" spans="1:22">
       <c r="A259" s="5"/>
       <c r="B259" s="6">
         <v>46020</v>
@@ -16872,7 +16872,7 @@
       <c r="U259" s="5"/>
       <c r="V259" s="5"/>
     </row>
-    <row r="260" ht="36" hidden="1" spans="1:22">
+    <row r="260" ht="48" hidden="1" spans="1:22">
       <c r="A260" s="5"/>
       <c r="B260" s="6">
         <v>46020</v>
@@ -16928,7 +16928,7 @@
       <c r="U260" s="5"/>
       <c r="V260" s="5"/>
     </row>
-    <row r="261" ht="48" hidden="1" spans="1:22">
+    <row r="261" ht="60" hidden="1" spans="1:22">
       <c r="A261" s="5"/>
       <c r="B261" s="6">
         <v>46020</v>
@@ -16984,7 +16984,7 @@
       <c r="U261" s="5"/>
       <c r="V261" s="5"/>
     </row>
-    <row r="262" ht="48" hidden="1" spans="1:22">
+    <row r="262" ht="60" hidden="1" spans="1:22">
       <c r="A262" s="5"/>
       <c r="B262" s="6">
         <v>46020</v>
@@ -17034,7 +17034,7 @@
       <c r="U262" s="5"/>
       <c r="V262" s="5"/>
     </row>
-    <row r="263" ht="48" hidden="1" spans="1:22">
+    <row r="263" ht="60" hidden="1" spans="1:22">
       <c r="A263" s="5"/>
       <c r="B263" s="6">
         <v>46020</v>
@@ -17084,7 +17084,7 @@
       <c r="U263" s="5"/>
       <c r="V263" s="5"/>
     </row>
-    <row r="264" hidden="1" spans="1:22">
+    <row r="264" ht="24" hidden="1" spans="1:22">
       <c r="A264" s="5"/>
       <c r="B264" s="6">
         <v>46020</v>
@@ -17504,7 +17504,7 @@
       <c r="U271" s="5"/>
       <c r="V271" s="5"/>
     </row>
-    <row r="272" ht="24" hidden="1" spans="1:22">
+    <row r="272" ht="36" hidden="1" spans="1:22">
       <c r="A272" s="10"/>
       <c r="B272" s="6">
         <v>46020</v>
@@ -17980,7 +17980,7 @@
       <c r="U281" s="5"/>
       <c r="V281" s="5"/>
     </row>
-    <row r="282" hidden="1" spans="1:22">
+    <row r="282" ht="24" hidden="1" spans="1:22">
       <c r="A282" s="5" t="s">
         <v>786</v>
       </c>
@@ -18030,7 +18030,7 @@
       <c r="U282" s="5"/>
       <c r="V282" s="5"/>
     </row>
-    <row r="283" hidden="1" spans="1:22">
+    <row r="283" ht="24" hidden="1" spans="1:22">
       <c r="A283" s="5"/>
       <c r="B283" s="6">
         <v>46020</v>
@@ -18126,7 +18126,7 @@
       <c r="U284" s="5"/>
       <c r="V284" s="5"/>
     </row>
-    <row r="285" hidden="1" spans="1:22">
+    <row r="285" ht="24" hidden="1" spans="1:22">
       <c r="A285" s="5"/>
       <c r="B285" s="6">
         <v>46020</v>
@@ -18174,7 +18174,7 @@
       <c r="U285" s="5"/>
       <c r="V285" s="5"/>
     </row>
-    <row r="286" hidden="1" spans="1:22">
+    <row r="286" ht="24" hidden="1" spans="1:22">
       <c r="A286" s="5"/>
       <c r="B286" s="6">
         <v>46020</v>
@@ -18606,7 +18606,7 @@
       <c r="U294" s="5"/>
       <c r="V294" s="5"/>
     </row>
-    <row r="295" ht="24" hidden="1" spans="1:22">
+    <row r="295" ht="36" hidden="1" spans="1:22">
       <c r="A295" s="5"/>
       <c r="B295" s="6">
         <v>46021</v>
@@ -18655,7 +18655,7 @@
       <c r="U295" s="5"/>
       <c r="V295" s="5"/>
     </row>
-    <row r="296" ht="24" hidden="1" spans="1:22">
+    <row r="296" ht="36" hidden="1" spans="1:22">
       <c r="A296" s="5"/>
       <c r="B296" s="6">
         <v>46021</v>
